--- a/data/trans_orig/P35A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P35A_2023-Provincia-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3423</v>
+        <v>2967</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003061472942535651</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01083026513537014</v>
+        <v>0.00938637025474731</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2907</v>
+        <v>3350</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001524022803987648</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00457926174515591</v>
+        <v>0.005275992973898152</v>
       </c>
     </row>
     <row r="5">
@@ -807,16 +807,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5529</v>
+        <v>4712</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.002947686883496972</v>
+        <v>0.002947686883496973</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01734037005585599</v>
+        <v>0.01477868229077488</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1989</v>
+        <v>2296</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.001280256621960571</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.006292888894013939</v>
+        <v>0.007264614360136208</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5262</v>
+        <v>6671</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.002117628349471248</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.008287823296255279</v>
+        <v>0.01050674930655626</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>56996</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45154</v>
+        <v>44918</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>70158</v>
+        <v>70393</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1787572058160434</v>
+        <v>0.1787572058160435</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1416184775649141</v>
+        <v>0.1408778597568007</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2200392877218372</v>
+        <v>0.2207735635433754</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>102</v>
@@ -896,19 +896,19 @@
         <v>52963</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>43545</v>
+        <v>43428</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>63563</v>
+        <v>63771</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1675727223647207</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1377734678797864</v>
+        <v>0.1374029837277956</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2011088088585196</v>
+        <v>0.2017671987104641</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>173</v>
@@ -917,19 +917,19 @@
         <v>109959</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>94828</v>
+        <v>96129</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>125278</v>
+        <v>126278</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1731894911405969</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1493580487622526</v>
+        <v>0.151406549129631</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1973170731466178</v>
+        <v>0.1988931228112125</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>260909</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>247623</v>
+        <v>247808</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>272780</v>
+        <v>273304</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8182951073004594</v>
+        <v>0.8182951073004596</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7766236383796418</v>
+        <v>0.7772053573210715</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8555268497875304</v>
+        <v>0.8571678389556291</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>433</v>
@@ -967,19 +967,19 @@
         <v>261726</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>250804</v>
+        <v>250796</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>271309</v>
+        <v>271220</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8280855480707831</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7935288225624777</v>
+        <v>0.7935048270991539</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8584081159269088</v>
+        <v>0.8581267628575255</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>692</v>
@@ -988,19 +988,19 @@
         <v>522635</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>506558</v>
+        <v>506751</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>537553</v>
+        <v>536753</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8231688577059442</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.797847587854314</v>
+        <v>0.7981519281831453</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8466662606641601</v>
+        <v>0.8454048593784377</v>
       </c>
     </row>
     <row r="8">
@@ -1092,19 +1092,19 @@
         <v>80193</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>61022</v>
+        <v>60145</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>106393</v>
+        <v>103515</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1511238174512195</v>
+        <v>0.1511238174512194</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1149946333267695</v>
+        <v>0.1133423081206839</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2004969703276291</v>
+        <v>0.1950726458808148</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>103</v>
@@ -1113,19 +1113,19 @@
         <v>80112</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>66453</v>
+        <v>65538</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>96814</v>
+        <v>96053</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.1467521791074092</v>
+        <v>0.1467521791074093</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1217314529536784</v>
+        <v>0.1200562953581541</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1773478899155056</v>
+        <v>0.1759549970527081</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>157</v>
@@ -1134,19 +1134,19 @@
         <v>160305</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>135903</v>
+        <v>133989</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>187443</v>
+        <v>189368</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1489070321523734</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1262400072073581</v>
+        <v>0.1244621288177888</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1741157547135955</v>
+        <v>0.1759031597480182</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>3253</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>911</v>
+        <v>932</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8505</v>
+        <v>9046</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006131152420660329</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001716371701338532</v>
+        <v>0.001755433956304909</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01602686822254312</v>
+        <v>0.01704763109388546</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1184,19 +1184,19 @@
         <v>7923</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4121</v>
+        <v>4436</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14658</v>
+        <v>14595</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.01451295970417786</v>
+        <v>0.01451295970417787</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007549611282189598</v>
+        <v>0.008125570108986849</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02685196594083298</v>
+        <v>0.02673515521398239</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1205,19 +1205,19 @@
         <v>11176</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6421</v>
+        <v>6121</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18608</v>
+        <v>18629</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01038142787864082</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005964887134096007</v>
+        <v>0.005685989615935703</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01728473292275263</v>
+        <v>0.01730477428646245</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>150706</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>126689</v>
+        <v>126232</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>177216</v>
+        <v>178116</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2840034760641824</v>
+        <v>0.2840034760641823</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2387435519811589</v>
+        <v>0.2378840866299197</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3339627961483211</v>
+        <v>0.3356581972343545</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>190</v>
@@ -1255,19 +1255,19 @@
         <v>132258</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>114715</v>
+        <v>116542</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>149149</v>
+        <v>149667</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.242276557149367</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2101393692559849</v>
+        <v>0.2134873563059161</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2732177507425235</v>
+        <v>0.2741666779031796</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>308</v>
@@ -1276,19 +1276,19 @@
         <v>282964</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>255161</v>
+        <v>251184</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>315928</v>
+        <v>312583</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.262844447539447</v>
+        <v>0.2628444475394471</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2370182379024466</v>
+        <v>0.233324162228302</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2934646961483292</v>
+        <v>0.2903575500338277</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>296495</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>269116</v>
+        <v>265877</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>324258</v>
+        <v>326405</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5587415540639378</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5071477907132207</v>
+        <v>0.5010430182082859</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6110618302151817</v>
+        <v>0.6151083821868348</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>412</v>
@@ -1326,19 +1326,19 @@
         <v>325605</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>304176</v>
+        <v>304063</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>345612</v>
+        <v>344563</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.5964583040390459</v>
+        <v>0.5964583040390461</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5572038319308151</v>
+        <v>0.5569968863899222</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6331066352225999</v>
+        <v>0.6311848102824285</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>619</v>
@@ -1347,19 +1347,19 @@
         <v>622100</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>587413</v>
+        <v>588913</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>658635</v>
+        <v>657203</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.5778670924295388</v>
+        <v>0.5778670924295389</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5456465842521067</v>
+        <v>0.547040173613317</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6118046960533372</v>
+        <v>0.6104742374050773</v>
       </c>
     </row>
     <row r="13">
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4168</v>
+        <v>3819</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001785040040900137</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01170846867991245</v>
+        <v>0.01072757240251695</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -1488,16 +1488,16 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3198</v>
+        <v>3540</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.0009456204931203956</v>
+        <v>0.0009456204931203959</v>
       </c>
       <c r="V14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.004758615313977573</v>
+        <v>0.005268458304543478</v>
       </c>
     </row>
     <row r="15">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4087</v>
+        <v>4619</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.003703110406355037</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01148020385701473</v>
+        <v>0.01297602009445055</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>4062</v>
+        <v>4606</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.001961713467654713</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.006045687810986761</v>
+        <v>0.006854353156916798</v>
       </c>
     </row>
     <row r="16">
@@ -1577,19 +1577,19 @@
         <v>85428</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72187</v>
+        <v>71954</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>100443</v>
+        <v>100858</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.270347548215718</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2284438528392116</v>
+        <v>0.227706217717806</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3178646913158098</v>
+        <v>0.3191784692765168</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>142</v>
@@ -1598,19 +1598,19 @@
         <v>79689</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>68631</v>
+        <v>68785</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>91387</v>
+        <v>92800</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2238639552177522</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1927992584412055</v>
+        <v>0.1932302554562322</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2567262658869141</v>
+        <v>0.2606941601102222</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>259</v>
@@ -1619,19 +1619,19 @@
         <v>165117</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>146255</v>
+        <v>146702</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>184930</v>
+        <v>185196</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2457229811888749</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.217652172749018</v>
+        <v>0.2183180475995185</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2752071801043975</v>
+        <v>0.2756040227747502</v>
       </c>
     </row>
     <row r="17">
@@ -1648,19 +1648,19 @@
         <v>230565</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>215550</v>
+        <v>215135</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>243806</v>
+        <v>244039</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7296524517842821</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6821353086841901</v>
+        <v>0.6808215307234828</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7715561471607886</v>
+        <v>0.7722937822821938</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>390</v>
@@ -1669,19 +1669,19 @@
         <v>274329</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>261889</v>
+        <v>261124</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>285451</v>
+        <v>285090</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7706478943349926</v>
+        <v>0.7706478943349925</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7357008468477734</v>
+        <v>0.7335516834711249</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8018916574585561</v>
+        <v>0.8008788914068695</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>633</v>
@@ -1690,19 +1690,19 @@
         <v>504894</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>485169</v>
+        <v>485484</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>523777</v>
+        <v>523295</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7513696848503499</v>
+        <v>0.7513696848503502</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7220147221275927</v>
+        <v>0.7224844983413743</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7794703039827202</v>
+        <v>0.7787527885112476</v>
       </c>
     </row>
     <row r="18">
@@ -1794,19 +1794,19 @@
         <v>2695</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7938</v>
+        <v>7780</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.00722312865708064</v>
+        <v>0.007223128657080641</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001942411851020693</v>
+        <v>0.001921087219867188</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02127262330554295</v>
+        <v>0.02084977524438721</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -1815,19 +1815,19 @@
         <v>5149</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1238</v>
+        <v>1000</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18682</v>
+        <v>18441</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0122020607279593</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002935089033422305</v>
+        <v>0.002369179443336964</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04427487985090395</v>
+        <v>0.04370274352607582</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1836,19 +1836,19 @@
         <v>7844</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2888</v>
+        <v>3395</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20141</v>
+        <v>24147</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.009865437367887546</v>
+        <v>0.009865437367887545</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00363267738678816</v>
+        <v>0.004269301579131017</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02533125103333533</v>
+        <v>0.03036917362080716</v>
       </c>
     </row>
     <row r="20">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10015</v>
+        <v>11322</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.005248756821674344</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0268385935821773</v>
+        <v>0.03034119960808369</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1886,19 +1886,19 @@
         <v>2735</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>990</v>
+        <v>974</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5759</v>
+        <v>5890</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.006482561499558282</v>
+        <v>0.006482561499558283</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002345542358943137</v>
+        <v>0.002308807267819114</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01364878697416229</v>
+        <v>0.01395935862677665</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -1907,19 +1907,19 @@
         <v>4694</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1696</v>
+        <v>1681</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12082</v>
+        <v>12487</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005903534352557932</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002133552339617885</v>
+        <v>0.002113866774022382</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01519503938312661</v>
+        <v>0.01570532935890763</v>
       </c>
     </row>
     <row r="21">
@@ -1936,19 +1936,19 @@
         <v>86417</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>68782</v>
+        <v>68279</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>108940</v>
+        <v>106855</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.231591783289142</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1843314390586566</v>
+        <v>0.1829815025091613</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2919504828282431</v>
+        <v>0.2863619375136168</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>145</v>
@@ -1957,19 +1957,19 @@
         <v>103941</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>88534</v>
+        <v>88582</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>124537</v>
+        <v>123380</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2463283198298564</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2098162217984284</v>
+        <v>0.2099303285074852</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2951388937337245</v>
+        <v>0.29239663496615</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>224</v>
@@ -1978,19 +1978,19 @@
         <v>190359</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>164989</v>
+        <v>165442</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>218781</v>
+        <v>218274</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.2394124320375758</v>
+        <v>0.2394124320375757</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2075049281096128</v>
+        <v>0.2080746783464522</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2751588736127946</v>
+        <v>0.2745210169494215</v>
       </c>
     </row>
     <row r="22">
@@ -2007,19 +2007,19 @@
         <v>282074</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>260546</v>
+        <v>261617</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>299833</v>
+        <v>300410</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7559363312321031</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6982429818636263</v>
+        <v>0.7011137064824868</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8035293432089302</v>
+        <v>0.8050766439414424</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>445</v>
@@ -2028,19 +2028,19 @@
         <v>310136</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>290092</v>
+        <v>291088</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>326012</v>
+        <v>326583</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.7349870579426261</v>
+        <v>0.7349870579426262</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6874859535964557</v>
+        <v>0.6898457851875844</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.772612667937176</v>
+        <v>0.7739641753023796</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>654</v>
@@ -2049,19 +2049,19 @@
         <v>592210</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>562885</v>
+        <v>564976</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>619298</v>
+        <v>617491</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7448185962419788</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7079362135298056</v>
+        <v>0.7105656068554072</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7788865000642379</v>
+        <v>0.7766136449932025</v>
       </c>
     </row>
     <row r="23">
@@ -2153,19 +2153,19 @@
         <v>21063</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14059</v>
+        <v>13217</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>32031</v>
+        <v>30467</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1024155963984479</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06835714311889475</v>
+        <v>0.06426650514333644</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1557427247533017</v>
+        <v>0.1481375904565201</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>33</v>
@@ -2174,19 +2174,19 @@
         <v>19585</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>13164</v>
+        <v>12914</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>29300</v>
+        <v>28860</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.08634550024249546</v>
+        <v>0.08634550024249543</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05803558823112102</v>
+        <v>0.05693636908791389</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1291775334210075</v>
+        <v>0.1272347698158171</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>57</v>
@@ -2195,19 +2195,19 @@
         <v>40648</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>30896</v>
+        <v>30704</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>53322</v>
+        <v>54983</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09398744983387164</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07143798617676932</v>
+        <v>0.07099486430138881</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1232908234141335</v>
+        <v>0.127132292800202</v>
       </c>
     </row>
     <row r="25">
@@ -2224,19 +2224,19 @@
         <v>14056</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8732</v>
+        <v>8387</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21355</v>
+        <v>20994</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.0683431637638531</v>
+        <v>0.06834316376385309</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04245524724283154</v>
+        <v>0.04077954921411363</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1038348319754107</v>
+        <v>0.1020779875525702</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>19</v>
@@ -2245,19 +2245,19 @@
         <v>9532</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5668</v>
+        <v>6058</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14946</v>
+        <v>15293</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.04202288910686007</v>
+        <v>0.04202288910686006</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02498851790729995</v>
+        <v>0.02670761600724207</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06589436799561263</v>
+        <v>0.06742417511735449</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>39</v>
@@ -2266,19 +2266,19 @@
         <v>23588</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>17208</v>
+        <v>16862</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>33333</v>
+        <v>32008</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05453919331611737</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03978931512438436</v>
+        <v>0.03898852681515172</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07707345943743357</v>
+        <v>0.07400841792975166</v>
       </c>
     </row>
     <row r="26">
@@ -2295,19 +2295,19 @@
         <v>29664</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>21770</v>
+        <v>21416</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>38718</v>
+        <v>38431</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.144234700251935</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1058511570279442</v>
+        <v>0.1041288742899528</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1882551857246943</v>
+        <v>0.1868641772127223</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>94</v>
@@ -2316,19 +2316,19 @@
         <v>36444</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>30096</v>
+        <v>29234</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>44228</v>
+        <v>43562</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1606721313963638</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1326854970625498</v>
+        <v>0.128885047676229</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1949879545567034</v>
+        <v>0.1920518918016112</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>139</v>
@@ -2337,19 +2337,19 @@
         <v>66108</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>55530</v>
+        <v>55236</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>77741</v>
+        <v>76340</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1528554998716722</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.128397625742977</v>
+        <v>0.1277160685848166</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1797528314088393</v>
+        <v>0.1765147196809735</v>
       </c>
     </row>
     <row r="27">
@@ -2366,19 +2366,19 @@
         <v>140882</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>128550</v>
+        <v>129443</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>151612</v>
+        <v>153562</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6850065395857639</v>
+        <v>0.685006539585764</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6250461393437152</v>
+        <v>0.6293877825778877</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7371778668526223</v>
+        <v>0.7466616755498962</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>345</v>
@@ -2387,19 +2387,19 @@
         <v>161262</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>150227</v>
+        <v>149841</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>171340</v>
+        <v>170453</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.7109594792542808</v>
+        <v>0.7109594792542807</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6623103670434201</v>
+        <v>0.6606073549568996</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7553904009659211</v>
+        <v>0.7514787291421098</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>535</v>
@@ -2408,19 +2408,19 @@
         <v>302144</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>286718</v>
+        <v>284939</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>318232</v>
+        <v>316554</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.6986178569783388</v>
+        <v>0.6986178569783387</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6629500103483578</v>
+        <v>0.6588373944741264</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7358178445371947</v>
+        <v>0.731936954288481</v>
       </c>
     </row>
     <row r="28">
@@ -2512,19 +2512,19 @@
         <v>3971</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10178</v>
+        <v>10395</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01466912017123655</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.003210937720073611</v>
+        <v>0.003207361952487524</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03759812441506549</v>
+        <v>0.03840040824517654</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2536,16 +2536,16 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2726</v>
+        <v>4257</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.002503304049657095</v>
+        <v>0.002503304049657094</v>
       </c>
       <c r="O29" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01033369187227197</v>
+        <v>0.01614046526472435</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5</v>
@@ -2554,19 +2554,19 @@
         <v>4631</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1527</v>
+        <v>1547</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11275</v>
+        <v>11413</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.008665389421485582</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.00285788524800409</v>
+        <v>0.00289466302786668</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0210963620206328</v>
+        <v>0.02135458178644566</v>
       </c>
     </row>
     <row r="30">
@@ -2630,19 +2630,19 @@
         <v>71252</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>59382</v>
+        <v>58857</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>84148</v>
+        <v>84273</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2632068966281662</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2193574742523336</v>
+        <v>0.2174206708322097</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3108439009829068</v>
+        <v>0.3113056067413428</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>140</v>
@@ -2651,19 +2651,19 @@
         <v>66951</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>56420</v>
+        <v>55649</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>77901</v>
+        <v>77222</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.2538432211111089</v>
+        <v>0.2538432211111088</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2139146150864087</v>
+        <v>0.2109906298292631</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2953594346140284</v>
+        <v>0.292784084083515</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>264</v>
@@ -2672,19 +2672,19 @@
         <v>138203</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>123123</v>
+        <v>122554</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>155333</v>
+        <v>154763</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.2585859993475694</v>
+        <v>0.2585859993475693</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2303700929321075</v>
+        <v>0.2293059990839422</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2906367553117779</v>
+        <v>0.2895704510651864</v>
       </c>
     </row>
     <row r="32">
@@ -2701,19 +2701,19 @@
         <v>195484</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>182573</v>
+        <v>182036</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>207500</v>
+        <v>207517</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.7221239832005972</v>
+        <v>0.7221239832005973</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6744316981066265</v>
+        <v>0.6724469150765509</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7665125279511362</v>
+        <v>0.7665760112048668</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>319</v>
@@ -2722,19 +2722,19 @@
         <v>196139</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>185350</v>
+        <v>185778</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>206684</v>
+        <v>207333</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.7436534748392342</v>
+        <v>0.7436534748392339</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.702748819508811</v>
+        <v>0.7043731344163985</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7836375980096203</v>
+        <v>0.7860964227792209</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>562</v>
@@ -2743,19 +2743,19 @@
         <v>391623</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>374242</v>
+        <v>374978</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>406621</v>
+        <v>407920</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.732748611230945</v>
+        <v>0.7327486112309453</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7002277717741348</v>
+        <v>0.7016063405995266</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7608117725883312</v>
+        <v>0.763241022420399</v>
       </c>
     </row>
     <row r="33">
@@ -2847,19 +2847,19 @@
         <v>12320</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>5904</v>
+        <v>5556</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>22597</v>
+        <v>24997</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01711912017223874</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.00820348940648534</v>
+        <v>0.007720258086728613</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03139795572686729</v>
+        <v>0.03473259350080134</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -2868,19 +2868,19 @@
         <v>5294</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1663</v>
+        <v>1390</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>14029</v>
+        <v>14181</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.006857129137762982</v>
+        <v>0.006857129137762981</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.002154170579277562</v>
+        <v>0.001799754004767127</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01817127580682646</v>
+        <v>0.01836772103118537</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>13</v>
@@ -2889,19 +2889,19 @@
         <v>17615</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>8799</v>
+        <v>10005</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>31734</v>
+        <v>33196</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01180799398063925</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.005898232128178726</v>
+        <v>0.00670663967692822</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02127310437409467</v>
+        <v>0.02225329096262521</v>
       </c>
     </row>
     <row r="35">
@@ -2918,19 +2918,19 @@
         <v>9556</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3757</v>
+        <v>3860</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>20896</v>
+        <v>21615</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01327767674703043</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.005220892269793245</v>
+        <v>0.00536377249434722</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02903465879591767</v>
+        <v>0.03003404714641411</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>9</v>
@@ -2939,19 +2939,19 @@
         <v>7213</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>3418</v>
+        <v>3437</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>13889</v>
+        <v>15012</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.009342667314250808</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.004427668273338841</v>
+        <v>0.004452333498855438</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01799016251486</v>
+        <v>0.01944358942500006</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>17</v>
@@ -2960,19 +2960,19 @@
         <v>16769</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>9666</v>
+        <v>9413</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>30500</v>
+        <v>28293</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.01124110006396625</v>
+        <v>0.01124110006396626</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.006479780351299847</v>
+        <v>0.006309916862422974</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02044576842487729</v>
+        <v>0.01896619266883513</v>
       </c>
     </row>
     <row r="36">
@@ -2989,19 +2989,19 @@
         <v>135615</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>114699</v>
+        <v>113523</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>159744</v>
+        <v>158163</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1884355161125576</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1593741235788158</v>
+        <v>0.157739627116477</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2219633754262973</v>
+        <v>0.2197667801408528</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>245</v>
@@ -3010,19 +3010,19 @@
         <v>187867</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>166413</v>
+        <v>166351</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>211466</v>
+        <v>210256</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2433334691967676</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2155453020428976</v>
+        <v>0.2154642095191694</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2738994734306637</v>
+        <v>0.2723324441850679</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>375</v>
@@ -3031,19 +3031,19 @@
         <v>323482</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>294861</v>
+        <v>293140</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>356640</v>
+        <v>359334</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2168481268341224</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1976620921163413</v>
+        <v>0.1965082615673373</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2390761343949005</v>
+        <v>0.2408816161544873</v>
       </c>
     </row>
     <row r="37">
@@ -3060,19 +3060,19 @@
         <v>562196</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>538739</v>
+        <v>537532</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>586384</v>
+        <v>587551</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.7811676869681732</v>
+        <v>0.7811676869681734</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.7485739669500545</v>
+        <v>0.7468962728308419</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.8147761229760514</v>
+        <v>0.8163973431997034</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>702</v>
@@ -3081,19 +3081,19 @@
         <v>571683</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>548443</v>
+        <v>550156</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>595236</v>
+        <v>595289</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.7404667343512185</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.7103661812781022</v>
+        <v>0.7125843974422578</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.770974587543912</v>
+        <v>0.7710427547919749</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1154</v>
@@ -3102,19 +3102,19 @@
         <v>1133879</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1098336</v>
+        <v>1099095</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1167077</v>
+        <v>1165658</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.7601027791212721</v>
+        <v>0.7601027791212722</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.7362761530402222</v>
+        <v>0.7367853669038018</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7823576606506595</v>
+        <v>0.7814060281505859</v>
       </c>
     </row>
     <row r="38">
@@ -3206,19 +3206,19 @@
         <v>177377</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>155714</v>
+        <v>154626</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>203345</v>
+        <v>206617</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2222566441243222</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1951130897180679</v>
+        <v>0.1937496254925297</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2547954872048663</v>
+        <v>0.2588953012039278</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>194</v>
@@ -3227,19 +3227,19 @@
         <v>154829</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>133244</v>
+        <v>135647</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>173985</v>
+        <v>176835</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1862424336052061</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1602778990441895</v>
+        <v>0.1631684237397266</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2092843561165617</v>
+        <v>0.2127130295188126</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>366</v>
@@ -3248,19 +3248,19 @@
         <v>332206</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>302859</v>
+        <v>298422</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>364295</v>
+        <v>364890</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2038819759262373</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.185871187196849</v>
+        <v>0.1831483208941929</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2235755785772781</v>
+        <v>0.2239410386992975</v>
       </c>
     </row>
     <row r="40">
@@ -3277,19 +3277,19 @@
         <v>68805</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>52715</v>
+        <v>54620</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>85195</v>
+        <v>88898</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.08621403518888238</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.06605277512852033</v>
+        <v>0.06844025009504626</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1067511423237104</v>
+        <v>0.1113905094313844</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>112</v>
@@ -3298,19 +3298,19 @@
         <v>85188</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>71143</v>
+        <v>71663</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>101476</v>
+        <v>101947</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1024721264150364</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.08557777352440338</v>
+        <v>0.08620285943307321</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.122064421576413</v>
+        <v>0.122630867194035</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>180</v>
@@ -3319,19 +3319,19 @@
         <v>153993</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>132460</v>
+        <v>131973</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>179088</v>
+        <v>177733</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.09450901174143536</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.08129378399527441</v>
+        <v>0.08099451439812438</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1099103703666083</v>
+        <v>0.1090785577211005</v>
       </c>
     </row>
     <row r="41">
@@ -3348,19 +3348,19 @@
         <v>230459</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>205860</v>
+        <v>206379</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>256291</v>
+        <v>259763</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2887696623688046</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.257946459080077</v>
+        <v>0.2585964686786829</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3211372050894806</v>
+        <v>0.3254887356748838</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>418</v>
@@ -3369,19 +3369,19 @@
         <v>301757</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>277821</v>
+        <v>279695</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>327684</v>
+        <v>328352</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3629803705414212</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3341880727552917</v>
+        <v>0.336442951285328</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.394167800868294</v>
+        <v>0.3949720257193484</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>668</v>
@@ -3390,19 +3390,19 @@
         <v>532216</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>495986</v>
+        <v>495158</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>567206</v>
+        <v>567664</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.3266324148701527</v>
+        <v>0.3266324148701526</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3043972011133482</v>
+        <v>0.3038892165332568</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.34810662990172</v>
+        <v>0.3483874365228922</v>
       </c>
     </row>
     <row r="42">
@@ -3419,19 +3419,19 @@
         <v>321431</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>290958</v>
+        <v>291236</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>349916</v>
+        <v>351685</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.4027596583179908</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3645757015651652</v>
+        <v>0.3649249154144391</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4384519162109755</v>
+        <v>0.440667807313147</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>338</v>
@@ -3440,19 +3440,19 @@
         <v>289557</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>263238</v>
+        <v>264407</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>314825</v>
+        <v>314856</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3483050694383363</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3166463319376915</v>
+        <v>0.3180531882977949</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3786997194741104</v>
+        <v>0.3787369582220955</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>610</v>
@@ -3461,19 +3461,19 @@
         <v>610988</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>569028</v>
+        <v>573955</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>649371</v>
+        <v>648535</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3749765974621747</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3492249569751044</v>
+        <v>0.3522486059814548</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3985331140389992</v>
+        <v>0.3980197442696292</v>
       </c>
     </row>
     <row r="43">
@@ -3565,19 +3565,19 @@
         <v>297620</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>264872</v>
+        <v>262274</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>335238</v>
+        <v>335890</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.08424574984161104</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.07497585649583571</v>
+        <v>0.07424046541218447</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.0948940809730015</v>
+        <v>0.09507847592093716</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>342</v>
@@ -3586,19 +3586,19 @@
         <v>267232</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>241076</v>
+        <v>239380</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>300048</v>
+        <v>297336</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.0715700887154652</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.06456497772758174</v>
+        <v>0.06411075012064152</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.08035875472720545</v>
+        <v>0.07963244599481598</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>608</v>
@@ -3607,19 +3607,19 @@
         <v>564853</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>519471</v>
+        <v>515163</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>611546</v>
+        <v>610620</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.07773252946257569</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.0714873087712385</v>
+        <v>0.07089446198075686</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.08415828443588036</v>
+        <v>0.08403079886359258</v>
       </c>
     </row>
     <row r="45">
@@ -3636,19 +3636,19 @@
         <v>98568</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>80952</v>
+        <v>79121</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>122482</v>
+        <v>121258</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.0279012385636864</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.02291478655704165</v>
+        <v>0.02239643120053146</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.0346703391859377</v>
+        <v>0.03432393369947224</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>159</v>
@@ -3657,19 +3657,19 @@
         <v>114314</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>96186</v>
+        <v>98016</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>132363</v>
+        <v>132681</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>0.03061554136673065</v>
+        <v>0.03061554136673066</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.02576054390972561</v>
+        <v>0.02625064747338164</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.03544940549438344</v>
+        <v>0.03553448397359127</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>260</v>
@@ -3678,19 +3678,19 @@
         <v>212882</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>186767</v>
+        <v>185633</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>240257</v>
+        <v>240847</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.0292959470649412</v>
+        <v>0.02929594706494119</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.02570200606029681</v>
+        <v>0.0255460468893374</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.03306317641252341</v>
+        <v>0.0331443668748887</v>
       </c>
     </row>
     <row r="46">
@@ -3707,19 +3707,19 @@
         <v>846536</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>789061</v>
+        <v>792674</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>898571</v>
+        <v>898991</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2396245410183975</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2233551529178308</v>
+        <v>0.2243780164490758</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2543536004030308</v>
+        <v>0.2544726399788831</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1476</v>
@@ -3728,19 +3728,19 @@
         <v>961872</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>915187</v>
+        <v>916641</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>1008867</v>
+        <v>1007055</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.2576082088286336</v>
+        <v>0.2576082088286337</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2451052359550338</v>
+        <v>0.2454945620089546</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2701945947822679</v>
+        <v>0.2697093077685506</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>2410</v>
@@ -3749,19 +3749,19 @@
         <v>1808408</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1738680</v>
+        <v>1737677</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1878561</v>
+        <v>1887439</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2488652102431235</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2392695391154132</v>
+        <v>0.2391314305346858</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2585193848208021</v>
+        <v>0.2597410414877781</v>
       </c>
     </row>
     <row r="47">
@@ -3778,19 +3778,19 @@
         <v>2290037</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2227445</v>
+        <v>2230477</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>2350975</v>
+        <v>2354681</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.6482284705763052</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.6305108853647835</v>
+        <v>0.6313692233908293</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.6654779175697674</v>
+        <v>0.6665270050377792</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>3384</v>
@@ -3799,19 +3799,19 @@
         <v>2390437</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>2337215</v>
+        <v>2337872</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>2440845</v>
+        <v>2438149</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.6402061610891705</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.6259521665587676</v>
+        <v>0.6261281954963321</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.6537063872769995</v>
+        <v>0.6529842647097274</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>5459</v>
@@ -3820,19 +3820,19 @@
         <v>4680474</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>4592283</v>
+        <v>4595075</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>4759228</v>
+        <v>4758270</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.6441063132293595</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.6319698091666971</v>
+        <v>0.6323540796863325</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.6549440606433727</v>
+        <v>0.6548123123544214</v>
       </c>
     </row>
     <row r="48">
